--- a/all_npc.xlsx
+++ b/all_npc.xlsx
@@ -11,13 +11,14 @@
     <sheet name="功能ID" sheetId="2" r:id="rId2"/>
     <sheet name="描述" sheetId="3" r:id="rId3"/>
     <sheet name="属性" sheetId="4" r:id="rId4"/>
+    <sheet name="技能" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="16">
   <si>
     <t>不要重名</t>
   </si>
@@ -28,7 +29,7 @@
     <t>npc模板1</t>
   </si>
   <si>
-    <t>npc模板2</t>
+    <t>鱼线龙</t>
   </si>
   <si>
     <t>蒙面人</t>
@@ -40,7 +41,7 @@
     <t>作为模板的npc</t>
   </si>
   <si>
-    <t>模板npc2号</t>
+    <t>申必人</t>
   </si>
   <si>
     <t>一个神秘的蒙面人。\n可以试试跟他切磋（battle）或者交谈（talk）</t>
@@ -52,10 +53,19 @@
     <t>属性包括所有数据。不只是字面意思上的属性</t>
   </si>
   <si>
-    <t>{'npc_shuxing':{'气血':100},'battle_able'=False}</t>
+    <t>{"health":{"躯干":100,"左肢":100,"右肢":100,"左腿":100,"右腿":100,"头":100},"法力":1,'力量':22,'敏捷':0,'智力':0,'气运':100,'防御':0,'可以战斗':0}</t>
   </si>
   <si>
-    <t>{'npc_shuxing':{'气血':100},'battle_able'=True}</t>
+    <t>{"health":{"躯干":1000,"左肢":100,"右肢":100,"左腿":100,"右腿":100,"头":1000},"法力":1,'力量':1,'敏捷':0,'智力':30,'气运':100,'防御':0,'可以战斗':0}</t>
+  </si>
+  <si>
+    <t>{"health":{"躯干":100,"左肢":100,"右肢":100,"左腿":100,"右腿":100,"头":100},"法力":1,'力量':19,'敏捷':0,'智力':0,'气运':100,'防御':20,'可以战斗':0}</t>
+  </si>
+  <si>
+    <t>["挥拳"]</t>
+  </si>
+  <si>
+    <t>["挥拳","吟唱"]</t>
   </si>
 </sst>
 </file>
@@ -672,10 +682,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -999,7 +1009,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1066,7 +1076,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1842,12 +1852,12 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2266,7 +2276,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1"/>
@@ -2342,10 +2352,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
@@ -2681,6 +2691,418 @@
         <v>1</v>
       </c>
       <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
         <v>1</v>
       </c>
     </row>
